--- a/www/templates/help_template.xlsx
+++ b/www/templates/help_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R project\qc_reporting\www\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8501D362-0C3C-4E31-B3BF-6AE85D824C7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEA7EC9B-96B4-4E26-9749-A54393A592E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
   <si>
     <t>navtab</t>
   </si>
@@ -85,24 +85,6 @@
   </si>
   <si>
     <t>Hier sehen Sie den von Ihnen eingestellten Filterstatus, der ihre Karten bestimmt.</t>
-  </si>
-  <si>
-    <t>.bi-camera</t>
-  </si>
-  <si>
-    <t>Mit diesem Button können Sie einen Screenshot des jewiligen Elementes herunterladen.</t>
-  </si>
-  <si>
-    <t>.bi-columns</t>
-  </si>
-  <si>
-    <t>Mit diesem Button können Sie die Daten des jewiligen Elementes herunterladen.</t>
-  </si>
-  <si>
-    <t>.bi-arrows-angle-expand</t>
-  </si>
-  <si>
-    <t>Hier können Sie das jeweilige Element auf Vollbild maximieren.</t>
   </si>
   <si>
     <t>Willkommen zur Tour - Ländervergleich zum Vergleich von Ländern</t>
@@ -546,10 +528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -595,7 +577,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -612,7 +594,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -629,7 +611,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -646,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -663,7 +645,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -680,16 +662,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>40</v>
       </c>
       <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
         <v>19</v>
-      </c>
-      <c r="E8" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -697,16 +679,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -714,16 +696,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -731,16 +713,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -748,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -757,7 +739,7 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -765,16 +747,16 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -782,16 +764,16 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -799,16 +781,16 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -819,13 +801,13 @@
         <v>29</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -836,13 +818,13 @@
         <v>29</v>
       </c>
       <c r="C17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -853,13 +835,13 @@
         <v>29</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E18" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -867,16 +849,16 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -884,16 +866,16 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -904,13 +886,13 @@
         <v>35</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -921,13 +903,13 @@
         <v>35</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -938,64 +920,13 @@
         <v>35</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>8</v>
-      </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/www/templates/help_template.xlsx
+++ b/www/templates/help_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R project\qc_reporting\www\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CCC716-6E6A-4792-9E53-A1C51D16139D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61EC4D40-709D-45E8-9892-18FD249F9B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="26">
   <si>
     <t>navtab</t>
   </si>
@@ -51,102 +51,48 @@
     <t>#navbar-wrapper</t>
   </si>
   <si>
-    <t>Willkommen zum Konfliktexplorer - wählen Sie hier eine Quelle aus.</t>
-  </si>
-  <si>
     <t>datasets</t>
   </si>
   <si>
     <t>#navtabs</t>
   </si>
   <si>
-    <t>Willkommen zur Tour - Länderübersicht: Hier sehen Sie einen Überblick</t>
-  </si>
-  <si>
     <t>#sidebar-wrapper</t>
   </si>
   <si>
-    <t>Hier können Filter für den jeweiligen Datensatz zu Ereignistyp, Maß, sowie Zeitraum gesetzt werden.</t>
-  </si>
-  <si>
-    <t>Die Karte dient sowohl zur Übersicht als auch als Filter auf ADM0 Level. Bei Auswahl werden die Ansichten rechts angepasst. Um ein gewähltes Land abzuwählen klicken Sie bitte auf der Karten auf internationale Gewässer.</t>
-  </si>
-  <si>
     <t>#linechart</t>
   </si>
   <si>
-    <t>Hier sehen Sie die zeitliche Entwicklung der Ereignisse und Konflikttoten Ihrer Auswahl.</t>
-  </si>
-  <si>
     <t>#filter</t>
   </si>
   <si>
-    <t>Hier sehen Sie den von Ihnen eingestellten Filterstatus, der ihre Karten bestimmt.</t>
-  </si>
-  <si>
-    <t>Willkommen zur Tour - Ländervergleich zum Vergleich von Ländern</t>
-  </si>
-  <si>
-    <t>Hier können Filter für den jeweiligen Datensatz zu Ereignistyp, Maß, Zeitraum sowie Länder gesetzt werden.</t>
-  </si>
-  <si>
     <t xml:space="preserve">.tab-content </t>
   </si>
   <si>
-    <t>Diese Ansicht zeigt die Ereignisse und Konfikttoten der Länder im Vergleich.</t>
-  </si>
-  <si>
     <t>provinceOverview</t>
   </si>
   <si>
-    <t>Willkommen zur Tour - Provinzübersicht zum Vergleich von Provinzen</t>
-  </si>
-  <si>
-    <t>Hier können Filter für den jeweiligen Datensatz zu Ereignistyp, Maß, Zeitraum sowie ADM1 Level Provinzen der Länder gesetzt werden.</t>
-  </si>
-  <si>
     <t>#po_basemap</t>
   </si>
   <si>
-    <t>Hier sehen Sie eine Übersichtskarte auf Provinzebene Ihrer Auswahl.</t>
-  </si>
-  <si>
     <t>#po_linechart</t>
   </si>
   <si>
     <t>events</t>
   </si>
   <si>
-    <t>Willkommen zur Tour – Ereignisübersicht zum Anzeigen globaler Konfliktereignisse</t>
-  </si>
-  <si>
     <t>#eo_basemap</t>
   </si>
   <si>
-    <t>Diese Karte zeigt je nach Zoomlevel die gewählten Länder sowie die Ereignisse die dahinterliegen bis hin zur eigentlichen Nachrichtenmeldung des Ereignisses. Um zu zoomen nutzen Sie bitte die Schaltflächen auf der Karte oder ihr Mausrad.</t>
-  </si>
-  <si>
     <t>#eo_linechart</t>
   </si>
   <si>
-    <t>Hier sehen Sie die Top 10 Akteure nach Ereignisanzahl für die auf der Karte selektierten Regionen. Um nach einem bestimmten Akteur zu filtern, klicken Sie bitte auf den Balken des Akteurs. Die Kartenansicht passt sich dann automisch an. Um den Akteur abzuwählen bitte Doppelklick auf das Balkendiagramm.</t>
-  </si>
-  <si>
     <t>network</t>
   </si>
   <si>
-    <t>Willkommen zur Tour - Netzwerkanalyse zur Anzeige der Beziehung unter den Akteuren.</t>
-  </si>
-  <si>
-    <t>Hier können Filter für den ACLED Datensatz zu Land, Ereignistyp, Maß, sowie Zeitraum gesetzt werden.</t>
-  </si>
-  <si>
     <t>#nw_basemap</t>
   </si>
   <si>
-    <t>Hier werden die Beziehungen unter den Akteuren aufgezeigt, je größer der Akteur und die Verbindung, desto mehr Ereignisse zwischen diesen.</t>
-  </si>
-  <si>
     <t>_</t>
   </si>
   <si>
@@ -157,19 +103,46 @@
   </si>
   <si>
     <t>#global_situation</t>
+  </si>
+  <si>
+    <r>
+      <t>Lorem Ipsum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is simply dummy text of the printing and typesetting industry. Lorem Ipsum has been the industry's standard dummy text ever since the 1500s, when an unknown printer took a galley of type and scrambled it to make a type specimen book.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,8 +165,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +505,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -568,365 +542,365 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>3</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" t="s">
         <v>15</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s">
-        <v>24</v>
+        <v>9</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" t="s">
-        <v>31</v>
+        <v>17</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C20">
         <v>5</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C22">
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s">
-        <v>36</v>
+        <v>9</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" t="s">
-        <v>38</v>
+        <v>20</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
